--- a/biology/Botanique/Orme_Saint-Gervais/Orme_Saint-Gervais.xlsx
+++ b/biology/Botanique/Orme_Saint-Gervais/Orme_Saint-Gervais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'orme Saint-Gervais est un orme champêtre situé sur la place Saint-Gervais, devant la façade ouest de l'église Saint-Gervais, dans le 4e arrondissement de Paris. Un orme existe à cet endroit depuis le Moyen Âge, et l'arbre actuel, planté en 1935, a reçu en 2005 le label national « arbre remarquable de France ».
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La présence d'un orme à cet emplacement est attestée dès le XIIIe siècle. Il symbolise alors la justice. Il est également mentionné comme l'arbre auprès duquel, au Moyen Âge, les gens se retrouvaient pour le recouvrement de leurs créances. Un dicton disait alors : « Attendez-moi sous l’orme ! » Cet arbre était si célèbre que ses représentations peintes ou sculptées servaient de décorations, notamment à de nombreuses échoppes, et la fabrique de Saint-Gervais dégageait chaque année une somme destinée à son entretien.
 L'orme de Saint-Gervais fut maintes fois coupé puis replanté.
@@ -545,10 +559,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre actuel a été planté en 1935[1]. Il mesure environ 15 m de haut et son tronc, caractérisé par une curieuse cicatrice causée par la foudre, a une circonférence de 1,9 m[2]. Un panneau historique de la Ville de Paris, situé à l'angle nord-est de la place, rappelle son histoire et celle de ses prédécesseurs. Une pancarte fixée sur son tronc par la Ville de Paris donne également des informations sur cet arbre historique.
-Cet orme champêtre (ulmus minor) a reçu en 2005 le label national « arbre remarquable de France »[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre actuel a été planté en 1935. Il mesure environ 15 m de haut et son tronc, caractérisé par une curieuse cicatrice causée par la foudre, a une circonférence de 1,9 m. Un panneau historique de la Ville de Paris, situé à l'angle nord-est de la place, rappelle son histoire et celle de ses prédécesseurs. Une pancarte fixée sur son tronc par la Ville de Paris donne également des informations sur cet arbre historique.
+Cet orme champêtre (ulmus minor) a reçu en 2005 le label national « arbre remarquable de France ».
 			L'orme, sur la place Saint-Gervais, vu depuis le parvis de l'église (2014).
 			L'Orme Saint-Gervais entouré de sa clôture.
 			Autre vue de l'arbre avec le panneau Histoire de Paris sur la gauche de l'image.
@@ -582,12 +598,14 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En raison de la présence de cet arbre, la place Saint-Gervais a longtemps été appelée carrefour de l'Orme ou carrefour de l'Orme-Saint-Gervais.
-Le clergé de la paroisse de Saint-Gervais a longtemps utilisé cet emblème comme en-tête pour son papier à lettres et des stalles de l'église portent encore son motif. Ce motif est encore reproduit en ferronneries sur les balcons du 2e étage des immeubles des no 2 à 14 de la rue François-Miron jouxtant l’église[3]. Ces immeubles datant de Louis XV étaient d'ailleurs connus comme les « maisons à l’orme ».
-Le quartier du 4e arrondissement a également repris le symbole de l’orme à d’autres endroits, en particulier dans le nom ou l'enseigne de plusieurs boutiques (enseigne « À l'orme Saint-Gervais »[4], par exemple).
-			Motif d'une miséricorde[5].
+Le clergé de la paroisse de Saint-Gervais a longtemps utilisé cet emblème comme en-tête pour son papier à lettres et des stalles de l'église portent encore son motif. Ce motif est encore reproduit en ferronneries sur les balcons du 2e étage des immeubles des no 2 à 14 de la rue François-Miron jouxtant l’église. Ces immeubles datant de Louis XV étaient d'ailleurs connus comme les « maisons à l’orme ».
+Le quartier du 4e arrondissement a également repris le symbole de l’orme à d’autres endroits, en particulier dans le nom ou l'enseigne de plusieurs boutiques (enseigne « À l'orme Saint-Gervais », par exemple).
+			Motif d'une miséricorde.
 			Balconnet près de la place Saint-Gervais représentant l'orme traditionnel.
 </t>
         </is>
